--- a/testData/SNU - popular minors data survey (Responses).xlsx
+++ b/testData/SNU - popular minors data survey (Responses).xlsx
@@ -263,16 +263,17 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="45.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="45.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="9" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="14.43"/>
   </cols>
